--- a/data/trans_orig/P3A_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535A270B-7AFA-4E58-9A0B-0E353970181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC15ED55-9A1B-4510-A283-C419AC6D4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A88B2C2-5613-4C1A-9AC6-AF9134BF5127}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4317C8E1-4834-4593-AF6E-9DF4BEE9AE70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>17,11%</t>
@@ -101,7 +101,7 @@
     <t>12,92%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>82,89%</t>
@@ -746,208 +746,208 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E057CCC-6943-4CA8-8EB9-598B09469122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D865F631-64EA-44D7-AAB1-41FF8FC73DF5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,7 +1996,7 @@
         <v>2564</v>
       </c>
       <c r="D14" s="7">
-        <v>2590650</v>
+        <v>2590649</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2011,7 +2011,7 @@
         <v>2896</v>
       </c>
       <c r="I14" s="7">
-        <v>2969998</v>
+        <v>2969997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2047,7 +2047,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2062,7 +2062,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4487F7-D2AE-4D34-8EF4-495F64ADAE77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D5B43E-6E88-485F-9C39-A840C205E82E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2231,7 +2231,7 @@
         <v>190</v>
       </c>
       <c r="D4" s="7">
-        <v>196820</v>
+        <v>196819</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2312,7 +2312,7 @@
         <v>1864</v>
       </c>
       <c r="N5" s="7">
-        <v>2008039</v>
+        <v>2008040</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2333,7 +2333,7 @@
         <v>907</v>
       </c>
       <c r="D6" s="7">
-        <v>973584</v>
+        <v>973583</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2363,7 +2363,7 @@
         <v>2153</v>
       </c>
       <c r="N6" s="7">
-        <v>2310380</v>
+        <v>2310381</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2571,7 +2571,7 @@
         <v>273</v>
       </c>
       <c r="N10" s="7">
-        <v>306906</v>
+        <v>306907</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>131</v>
@@ -2673,7 +2673,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2777,7 +2777,7 @@
         <v>5126</v>
       </c>
       <c r="N14" s="7">
-        <v>5503032</v>
+        <v>5503031</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>158</v>
@@ -2828,7 +2828,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6970952</v>
+        <v>6970951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9E64A2-9A93-4D40-92FA-34A3B780178D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6553B966-287C-4A44-B13A-41BF45B1B450}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3218,7 +3218,7 @@
         <v>2809</v>
       </c>
       <c r="N8" s="7">
-        <v>2960841</v>
+        <v>2960840</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>195</v>
@@ -3269,7 +3269,7 @@
         <v>3854</v>
       </c>
       <c r="N9" s="7">
-        <v>4057332</v>
+        <v>4057331</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3498,7 +3498,7 @@
         <v>2177</v>
       </c>
       <c r="D14" s="7">
-        <v>2275784</v>
+        <v>2275785</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>225</v>
@@ -3549,7 +3549,7 @@
         <v>3207</v>
       </c>
       <c r="D15" s="7">
-        <v>3368576</v>
+        <v>3368577</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9F2BE8-4A72-427A-B2AB-2A7040328EEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B639A899-64F3-40D6-90D3-E8064100A244}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3733,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>92087</v>
+        <v>88242</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>235</v>
@@ -3748,7 +3748,7 @@
         <v>121</v>
       </c>
       <c r="I4" s="7">
-        <v>71790</v>
+        <v>67264</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>238</v>
@@ -3757,22 +3757,22 @@
         <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>234</v>
       </c>
       <c r="N4" s="7">
-        <v>163877</v>
+        <v>155506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,46 +3784,46 @@
         <v>578</v>
       </c>
       <c r="D5" s="7">
-        <v>449547</v>
+        <v>426696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>1306</v>
       </c>
       <c r="I5" s="7">
-        <v>764163</v>
+        <v>688244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>1884</v>
       </c>
       <c r="N5" s="7">
-        <v>1213709</v>
+        <v>1114940</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3865,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,46 +3888,46 @@
         <v>613</v>
       </c>
       <c r="D7" s="7">
-        <v>617059</v>
+        <v>596362</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>726</v>
       </c>
       <c r="I7" s="7">
-        <v>493248</v>
+        <v>462534</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1339</v>
       </c>
       <c r="N7" s="7">
-        <v>1110307</v>
+        <v>1058896</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,46 +3939,46 @@
         <v>1377</v>
       </c>
       <c r="D8" s="7">
-        <v>1543799</v>
+        <v>1692866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>2193</v>
       </c>
       <c r="I8" s="7">
-        <v>1754910</v>
+        <v>1774030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>3570</v>
       </c>
       <c r="N8" s="7">
-        <v>3298708</v>
+        <v>3466896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160858</v>
+        <v>2289228</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248158</v>
+        <v>2236564</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4020,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4409015</v>
+        <v>4525792</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,46 +4043,46 @@
         <v>268</v>
       </c>
       <c r="D10" s="7">
-        <v>257107</v>
+        <v>245513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>314</v>
       </c>
       <c r="I10" s="7">
-        <v>217578</v>
+        <v>204985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>582</v>
       </c>
       <c r="N10" s="7">
-        <v>474686</v>
+        <v>450498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,46 +4094,46 @@
         <v>413</v>
       </c>
       <c r="D11" s="7">
-        <v>415932</v>
+        <v>401110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>690</v>
       </c>
       <c r="I11" s="7">
-        <v>496308</v>
+        <v>455478</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1103</v>
       </c>
       <c r="N11" s="7">
-        <v>912240</v>
+        <v>856588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4160,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4198,7 @@
         <v>994</v>
       </c>
       <c r="D13" s="7">
-        <v>966253</v>
+        <v>930117</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4213,7 +4213,7 @@
         <v>1161</v>
       </c>
       <c r="I13" s="7">
-        <v>782617</v>
+        <v>734783</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>288</v>
@@ -4228,7 +4228,7 @@
         <v>2155</v>
       </c>
       <c r="N13" s="7">
-        <v>1748869</v>
+        <v>1664900</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>291</v>
@@ -4249,7 +4249,7 @@
         <v>2368</v>
       </c>
       <c r="D14" s="7">
-        <v>2409277</v>
+        <v>2520673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>294</v>
@@ -4264,7 +4264,7 @@
         <v>4189</v>
       </c>
       <c r="I14" s="7">
-        <v>3015380</v>
+        <v>2917752</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>297</v>
@@ -4279,7 +4279,7 @@
         <v>6557</v>
       </c>
       <c r="N14" s="7">
-        <v>5424658</v>
+        <v>5438424</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>300</v>
@@ -4300,7 +4300,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375530</v>
+        <v>3450790</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4315,7 @@
         <v>5350</v>
       </c>
       <c r="I15" s="7">
-        <v>3797997</v>
+        <v>3652535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4330,7 @@
         <v>8712</v>
       </c>
       <c r="N15" s="7">
-        <v>7173527</v>
+        <v>7103324</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
